--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/10_Artvin_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/10_Artvin_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487995AA-C5DB-4A42-B37A-446BB6294A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35D6B14-BD0E-4F22-9C4F-B483D56EF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{42A8012E-241A-401B-B56F-70B7AC7F9D7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{51A6E033-B99D-4131-A535-C9D953E90547}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -959,15 +959,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C8AAD481-72AE-4474-B336-36ED45805658}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{32B87A4B-C516-499E-B68B-5E8A5BA51AAD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3BE7F19D-E805-4714-B15A-8142515A8577}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F7EEBE79-7558-4F05-BA0B-585A57FE94FE}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{A9040770-A92B-4C87-8FF7-EFBDA5A5A0AD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3BEA3B74-4857-46CC-8867-6D4ADEBD3CA7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{C460628C-8209-45FD-B1A0-408DEF5169D5}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{76E1F5FB-6196-4D4C-9C8D-5BA721E8BC35}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{D8635AFC-C4C2-486A-B994-0F43FCB6B2DE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7EF11BFE-E789-4728-8826-6364409B6753}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E146E950-994D-40B9-9FB8-129BEF054484}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{55FFB1DB-A921-490C-A381-F7E2175D64B7}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{FE47AD15-5CD0-4027-AE6F-47939EBD9EEA}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{AE85849D-2952-417F-88B1-F9AA33604A10}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{8B551B9A-2A30-4F9E-9C38-8A40625A11FE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B20DBAE9-EB7A-4A97-8223-2B6E800CFA76}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{6A208BF6-F1DB-4C45-A7CF-0C9488DDF24B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{866C69DC-193F-4E7B-90C6-41CFD85B787A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B58464-0A43-4068-8F19-25083ECC4897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E45F410-EBA1-4371-B7EF-8639CA9D335E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2592,18 +2592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BF3AF0F-D23C-4733-84AD-AADBC0F5E8E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAC323F0-192B-4C64-A05B-3F5E2DDF302C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A821BAF-7C2B-48A3-9035-5D61C3A5889A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{099CECA9-E981-4374-866F-B12B91E6A2ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{378B5D08-D62F-4066-8BC7-29144775E536}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F924578A-7AF8-4B0F-8CC7-C024439A40B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0493771-2ACD-44E2-9052-FA3FDE43A8DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36DF1C05-66F1-482A-8C9A-8C42792DCB32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3FC6EAC-F21F-4F42-80B5-1B79AB1B99DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCE2315E-78AF-4252-A966-A9D05869869B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DEA15AA-8BB3-4044-8D7A-EBBD3110BBDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C9D4721-0888-41F4-AECE-3006D4110FCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA45B43C-DEF3-48F2-B298-F5125E95835B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9D3A40A-7312-4210-B341-708F0AC0C188}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4E6ADBE-B1E8-4A40-96C4-4DF7EC1D4274}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD8EB92F-EAA5-465C-A5FB-ECAD934B9521}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15BD3578-64F1-4FF1-A679-58BF11E0D44F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F63710A-2618-40ED-A614-4CCFA4156EEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CEE5853-1E82-48D3-8422-1A2EC871233E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{445DEA35-B6C8-4F62-9440-2B770EDA1F06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81D1A5F1-6580-4F0C-8D11-47F6516ED7BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2477C71D-2F3F-46C6-87D3-FA0F1EFC84FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BCE1916-4F51-45D4-8152-C505FC1D04F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD4953F6-6E80-4759-B798-6861D779EFE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D3B2A4-B451-4640-ACF4-9A675EBB8672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9DA1C3-3CAD-4B30-A913-2D8A7266C071}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3850,18 +3850,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD6D1083-CFBE-4288-A94B-991133D97B35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04270C46-0D4E-4D8E-A04C-A64E8DF446A6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4981C1B1-52F9-4737-B227-C4FFFB2F0758}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F15CA99D-1F4A-4224-A78C-10A67CD26326}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97EA71EF-7925-4D70-BF1D-69761908CBB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AA40389-0EE2-413E-97F2-44A55A976522}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33F5DCCF-A1C3-4FC8-B365-B819F180DC31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13F82865-78AA-4AE6-A308-AFFA52E96F5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91E3C168-41E9-48F0-9477-A82913BE7A35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6BCD474-3AE8-4520-9626-0BD22BAAFD97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36F56EB2-5031-4EBB-A4DE-A8B1397E4002}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FFF6DF0-4765-4045-A47A-4EF3A3B80791}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C10F7C9F-C0CA-4099-B92A-EAB64A3AF66F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80DCE987-12BE-4115-A100-9A4EC8C459C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A80E78C-4EA1-42E5-8937-F58C962C704C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6114EB78-D42E-4CAE-9F1B-9B06E2E4FC50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63B42934-0A3E-4B32-97B9-7DB804350EF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5C3455E-C69B-4D2F-9C22-1BCF1B44542A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11505260-F9EF-4AC9-9584-14FA477BB991}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CDB8E80-3FA0-4EDA-9064-E47527A6CA97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB5D8127-614D-4EDB-8DCA-EA51BA65195F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{509217D5-4F3E-46A3-9A4C-C3CD557A22CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C109287F-083B-4777-ABE8-E124D1884CDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1D7466D-028E-4BEC-9002-E6658D91681A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3874,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1584-7F95-435D-BB47-C9D1D6123C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1A0BF4-89D3-4921-86E8-81BB6D2C9700}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5102,18 +5102,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B3709BC-1D28-4D48-A412-26FBFA427E96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDCAE1DE-8EF8-42C4-A9DA-B56413881EE5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E481A042-13B4-4EE8-933A-E4D3580234C8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5A538A3-EAE6-496D-916F-6ABB5DD86CD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{913D3857-1A4B-48B9-A31C-847168CCD8ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0625D3EA-C938-4093-8335-3AD51E6F57E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4F2C2FC-03FB-4F06-BE10-303A2FA55059}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDA91701-37D5-4D80-B83B-9D347C47A404}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{666CDDB6-45CA-431D-BA42-379EDD8C2CA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AAC2C7F-E681-4FAC-AAF3-31A4F29DA8FF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{004F40A2-FE7D-45AD-9E9E-4C1057C9D58D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C406BCD0-7B3D-4508-AFBB-4767A8F609E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2D3FDDC-E5CD-4835-B1D2-FDBD91BC0525}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48E95219-FF94-4F84-813B-D88CAA4634FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24E6F6B9-3B01-4E1C-A7AE-6D51CC285DB3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1332559-CBB5-4302-8A36-5EA065B92AC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8229215A-6064-47D9-A5DE-8A668F403EE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6A1348E-3D02-43A1-AFF2-48BA0454A5D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0506C142-6B52-4F24-8492-FD4FDFD26BED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCBD895A-1073-407D-B4AC-C8CF5960A4CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A07CFCBC-48EF-4E57-8E02-82BC21AF04C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAF3D624-9377-4923-8FC0-D3B370F435A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B559D696-F899-45BF-9BFD-4B6F8141F7F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2D84454-B6AC-4A34-9017-E76357F302C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5126,7 +5126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FFBBC5-02B5-407F-8F62-5AEFAC0B89FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E2414-CDE4-4A18-8543-0721AE8C6560}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6336,18 +6336,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7897A82A-1740-4686-99EB-242BA7585B81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78048F7B-2386-4F17-91B0-A29F158BD321}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E5EC0DD-77F9-4635-9BEE-54A7A3A6EB3F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A02F5C41-A597-43DF-AD27-34481477AB82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAA7A49E-AE6C-4D2A-9F7A-31D9395337FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35CBE01E-D856-45F7-945E-990D0134DB66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{696F679C-0BF4-4E6D-8F2C-872DF15DA19C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA53434A-D48E-49D1-AADE-46DECB6154B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9393D7E-25E8-4321-8CCB-DD25D8A6BC95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1F2A589-980E-418A-8D40-C71B641FE864}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AF63024-0023-4020-B2E4-D36A037A2E89}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F2A302E-A6D5-4B8B-9304-8E1722B54282}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06C21F40-0EF1-49F6-925B-B0165A2B89F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{890ABCE1-78A4-4F98-ADD8-77CD01E8D082}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7449343-28AC-4D64-BA40-B8E2FBB53CCD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B5276923-2AFD-46EC-A9C9-E99BF7F6C02A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E91A8D9-C5DB-4C06-8193-101AB0C4E423}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{578F3CEA-D7F9-4985-B6F3-E2E301D0A75B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80001BB9-5ED7-47DC-B061-4C2E1CEE90F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{493F2B83-3AAD-428B-8794-5FFC4E38EDBC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F52AACA7-81C0-464D-8D5D-9986A31893F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B66EAF4C-E8F6-4143-BBDC-490FF1343200}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F04DB40-99AB-4294-8A9F-986AF654C7DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35FC4D1A-EA7F-47C5-9FBE-313675C2D740}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6360,7 +6360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A8AF4-EDB6-455A-8662-E90088312950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66EF29-EFDD-420E-ABAF-AFB2522D0ADC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7617,18 +7617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10B814B1-B3D3-450A-85D9-104B08FB923D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4AE777E-661D-4374-9316-9961981F4282}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD93D780-A94A-42A7-9D0F-EC84670AA69F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16D16BBE-20A1-4ADF-B673-35F8A94D2467}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{379D8BB2-E779-4434-97FE-50B9BEA829FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7C2FF62-3DAA-4078-9148-043AC342D49E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{574E32FE-5CAB-4EBF-822A-95092FFA69A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3813840A-E539-45EE-9227-C7A0B8937D86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C657D789-7AC0-4045-98D8-943A2482AB81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E81DE011-DD47-487F-B8C0-A2C218B1F54F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB74C58D-1B41-41ED-A827-3BFFCC0C0320}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{258FE76F-5894-4815-885A-ECF852F41EDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60A700AC-E929-4EE8-80E9-498D7BBFA77F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1918708D-FD64-48A0-BFD8-B30CB7C36FAC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB2EC26D-EB34-40C8-82F9-BC3252C7093B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDC72F03-4E84-428A-90C8-1499E9968278}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8834A0CE-D5C5-44CC-9F7C-690A1C1794A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7AA3E80-8307-4E27-9966-1514D6EDEB62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2788569D-7854-4CB2-9F7D-109BC6A731D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BED27BD-D40D-4916-9438-0D308BFD1D93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E184B34-8F0D-4556-AA00-8C523EC5E82D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0D6A142-4E7D-4F09-BBE4-6BD4BAA2AF86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BD9169B-8B20-41D5-8959-773F5B117328}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F90D3CF-1028-45E9-ABC8-51235DFEAE08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7641,7 +7641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD58455D-8B11-48DC-8CFF-B2CD215FED5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5211337-CCCB-4284-821F-B10EEC52019C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8898,18 +8898,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB19564D-2131-4196-AF40-638D228B82C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F8B7F87-6040-4EF3-8869-FA3AD46232C4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{835916EB-7979-49B9-82D4-66D3C58C7E3F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A292BD1B-97A9-4FAD-9C52-AE399A8AE014}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4836E111-E620-4CF0-9B49-E0148D090DA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B21FE68-5244-4A15-B3AE-7A61CCA3DB36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AC20FCB-5D72-4CC9-AEB7-5B9ADB216480}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1317729A-B989-4057-9341-6958E1F713CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDC9B7C3-E7A7-4AC9-8EA7-25EE99E7C1C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0DE25AAA-D10B-438D-839F-B51BC0ECBB24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35659AB6-83EA-4840-A9EA-BB1EB235C0FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16B4F5FC-D9CE-4F64-906E-2827716CED2F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CE3D168-402C-4E8F-A469-1F7EEB8683FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02E237A2-D00D-4D4A-ABF2-0C3B738E33A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CEC26085-BB7E-4F4F-8EAD-44F31BED8D19}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92011792-F9A7-40BC-914F-486538297B08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D8610F1-607A-4D05-8BAB-00FE46BA6EA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76D3536A-5459-4369-8CDF-0E3EFF7614A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8216B044-94B1-4C1A-9F6E-55B67DF2A6A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8629D12-6643-4E78-86A4-0012D7FD3FFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFB9EE48-D0A1-4501-92D9-3E9C713D6C0D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA9E5680-08DF-4C54-AAFD-4943FA9A111B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{986189C9-1E90-481A-8EB9-3C36222B118B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73DE18D8-C938-42B3-B44B-DA6F2455F826}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8922,7 +8922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628CB668-3729-4B11-936A-38142518C1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EF7CB-E859-4AF6-B88A-A16EA6F82054}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10179,18 +10179,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10FAD723-8DA7-48DA-AF7D-6571446DF723}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78A24CF3-D50A-45FB-807B-BA4D85DA5AC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63E12B30-E0AA-4BFE-A15F-015DB7F96958}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F16B6E8-5BE2-431C-91E5-A454E6BB856D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F11DADD-46D9-4BB1-91FB-457A5EFCC8BC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A75676DA-2C85-4CF6-8433-50FBA6C641DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{368B1948-4F70-4EF0-B7AF-98D5120BA3F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41AEE6BB-BC26-47A7-B17A-EDC15FB96490}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D3656F1-3F1E-4BDD-AC13-E47ED1D8C287}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32ACB5E0-4C99-4360-8C12-8765C02465D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58C4F0F3-FEAB-428F-8363-717116F6D6C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E56FE59-1AC9-4505-9EAB-934C3E8F657E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C4D5518-2B2D-49F2-B40E-1EB1D91CCA91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02D08B3D-91CB-45E5-A7F0-3F4079A96C4C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3FDB0539-602C-495A-AF3B-F70C62D112D2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{45A0B90A-0A85-4C09-9B06-A282C1B9B678}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAE6FDA2-7508-417E-A9CD-C7BF3987F76E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDDCECE7-A9D0-4900-9A66-34CFC0AAE716}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D7A49C-C526-484C-B2FF-7F9D7BC6155D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA16F2AB-CADF-472E-9D7E-EBBFFFCBE992}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF3E8064-06EC-40DE-B6AB-3D0BF4906B8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3151C7BF-9348-46BB-8B57-7D99527D1FF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83130C3B-E942-444E-B183-826D89B4A9AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1319BD09-5C84-41E5-A8D6-1686F44E5C8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10203,7 +10203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879B9C4D-B315-481A-9009-15422B570180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860423F4-42A5-4E29-9A17-DB7B1E5CB9D8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11460,18 +11460,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06B205F7-B6A6-4371-A1DC-2B02BFD7D0B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7EA8650-08FB-43DE-B177-7B1C216E4552}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B33F8E10-A31C-42E2-808F-F175980DE3A9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50919041-7F78-4985-AF63-7CAFA0342BD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CC85FD4-4E5D-4F9F-9F49-1C51FA0821AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39A4C0BA-FA7D-4329-B614-80222955FB3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4091831A-893E-4155-896B-E2326134694B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FB0CD1D-60F7-4730-BBBF-C7C8EDCCF23C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCAD16F7-02F3-450A-87BC-4A0E74FC5E32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A739D30-AB75-4282-8337-9A195AAF97AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{464506E0-0ED7-41FE-93FE-C423C4660972}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D06E16B0-8546-40EB-B739-DFBAE43E178C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D4ACEF5-FFB5-4BE5-8018-8E53CE19802E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C60B069-FA5D-4920-9856-28CCE2F40DA4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ECAA06C-9E63-4418-B180-ADA27460D687}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA7099B7-46D8-426D-A69B-1C2372218D48}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5776F16-0CD0-4EC7-A541-469B17858632}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C00CA667-BA25-4878-A770-C6516213256A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C8289B9-1634-4B21-A42B-27B63968198E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E47E694-B1FA-4DE4-9870-6213054E2D11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68A7887A-DD46-4CA0-8360-C3C41F7A0D07}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDDC5D47-4F18-4DC4-849A-DE2F87FC9CEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62A1CD47-EC62-4101-A612-B9463548CD55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38666D2B-DB51-4C7F-BF9D-E87DB500A78A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11484,7 +11484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF4D20-34B4-4A6E-ABF2-0ACABD3324FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4706E3-911F-4A71-B281-4F1D35FDEF12}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12733,18 +12733,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{927D4DE1-E5C5-4290-9534-62D3CE750A48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{194F359B-FD52-4E11-BD8F-3677A7857D2E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3117981F-2247-40C5-8684-C1590FBEEE59}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FF218F9-36EA-4DB0-942C-B2ACF83AB27D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DED9639E-541F-4C0C-BB4B-C93A59C91D28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87F00A1B-9322-49D6-B18F-95C24B60EBEA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2678E141-E965-493E-8A79-51CA9100147D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AA24E7A-73F9-4EF3-A841-06E504DEBDA2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7204280-91F1-4663-B932-4059E55433E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FD041CE-EEC4-4AC3-8EDE-87099BF4E048}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D35CCF2-1EA6-454D-A890-AA4CE16F8AC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A236A91-6917-4BA5-BD36-172435149F16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0979734-CD28-4F80-A929-1AA425BD7CC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE134D7C-A2B1-4AC7-8F62-6ED750A09D5D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05A6D995-B181-4707-BFC1-36BF08A4D41C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41D02705-D975-4925-BC97-8C5152EAADAE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C15469CE-DE74-47C9-B71A-F1A31D6B280B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D6E614F-3E72-4759-87D2-A905FB96F59C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADD122C9-CF5B-437A-A153-0DDD4AD276F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2B16E4D-759D-4A7C-9C3D-14A198A4E508}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E634D7B9-D73A-46FE-A0FC-7E02ECDF6425}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FADDAD7-BA8C-489A-8A6E-3BD9555ADF5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D93ED4AB-6813-4787-B4E8-4B4E8A606A2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{493EC658-E469-4358-9259-469FF492B59B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12757,7 +12757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167AD55D-C82E-4523-A934-3EBFD2A640A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD88F25-EF13-4808-BE98-06B6DFA2915E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14006,18 +14006,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B14015A-5575-4246-BA04-C4EDF9C804DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E341B5A1-0276-4329-8B16-03A11FE83D67}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{838547BC-B187-4842-AADC-378ACB60576D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2DD81201-C98A-40E1-9850-F4F379ABC477}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CA66C2E-663D-4065-83C5-68FB0DDF3A3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A8BF3DA-BE1D-48C5-871A-1544A72949EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF6B8D0D-46C2-4C26-ACB8-CBB46010B1F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E929D9CB-3C8F-487C-9FE3-ADE550154CFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68F994D7-99EE-4337-A8B8-69A6D62F476A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54BF02C3-0901-44BC-9491-1BB4F114672C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A12F09D4-F7F1-4CC6-A345-F037B2A2C9AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7BCC2D5-7FC6-4934-8706-71F75E3AE5A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6E62D44-04C6-4C1A-917A-5BCC4C7D699E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F0283CE-C03F-4A65-A831-55C77B7B4A3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CBFD157-C489-4E62-BC8C-31D66364B9F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1C2749B-86F9-4379-AFA9-FDB266F934D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF542E1B-E527-4C95-AFC1-85B20627BFAC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6260C76B-EC1D-4E20-A3DD-5DB661AE8DDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47351425-F5A7-4575-BDA4-C55F69CAD67B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84162008-C4EA-4060-8E67-2FC05C9CB494}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{536D4879-6DF8-489C-A190-08B24C9D1202}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09E1F213-902F-496D-BC80-0B3EAC88B2AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A1E361D-5E85-4B41-B1C9-F3BC6F9EAAFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3581D996-867E-4AC8-81C5-E94570CF5D57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14030,7 +14030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D061BB-AC35-4BB8-9EB1-08CE95414DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA9C03C-F641-457D-9F72-627672304FCC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15275,18 +15275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA460D8E-ECD6-448B-8727-CDA3FAD4C7EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAFC8F99-C184-4555-95E8-6E4D46DA43EA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD3D1981-CE1E-4987-BE6E-DFF0F5B37092}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1050C265-C470-494B-8115-3D6D4DE4201C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{255CCD7F-ED70-4F99-9FBF-B3D9EBC4D68F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E574A8D3-DB2B-4E1D-BABB-2E4748DF11E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B825029-D9B7-4E2E-8F04-504391F9483F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FCE6B1C-59B0-4032-832C-D41EEF2C0F17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FB057CE-2D43-47FF-8398-F54FB8837839}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1ABA17DE-BEC1-4319-9D8D-1D57FFA3AAA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{329909D8-44C7-4BD8-9176-F77EDF3270BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37F352BE-2A13-410E-93C4-3C89E6ADBD64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1F2069A-CC28-44C6-8337-9FCC7DE1697D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C66C991-DE8F-4950-9F9C-A6F63325F562}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06795B8A-69FF-4E5D-9112-8D5EFE945F29}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6D2F98C-CA29-4501-B1E8-D34ACDC79748}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2F6F747-297F-4990-A594-9E764B2BB39B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E439D8AC-EEEA-40D1-862E-1856E2E6C84D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62BBE75D-2A2A-475F-ACFC-5756305E01C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5859795A-A92E-4C2C-8888-922289D6F064}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D499F0EB-B269-4F14-A7A1-A7D7A936C933}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BCF5B8C3-1454-496D-AC6B-0F9C34A5D5A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66667A59-A8CD-4EDE-A125-AD4A677AACE9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F1672DE-9F5A-4C46-8C96-0869DAD28B32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15299,7 +15299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFA652-808D-43C6-8D87-63FF5D999D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AA8F6-5267-4401-9CA7-EDBA6BEABB1C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16544,18 +16544,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBE572AD-C93D-4640-9DB4-3821FA387626}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{376FA25E-FB3C-44A2-91C0-44DD311556F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7EA11A09-DCAD-4EE2-AE57-87C5833E579D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{661CB431-C998-477F-92D8-7D709BD299DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0276BC99-6E4E-447A-82BF-1D06F663C6E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A336C07C-E332-47E3-AD0F-2A1613300BB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC93429F-9A64-40AB-A285-2B90BEB5CB7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B09AB94-445F-4B73-BF63-94577E4681EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BB2CFF3-0FA5-4F63-8726-D0B91A6450FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B27F6AE-AC33-4EB1-B404-E6407D340B12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC46F858-0E15-46F7-A640-A2A41F2F7B34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEE09641-FF8F-45B0-ACE3-B4C72EB9C29B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61212A05-80B6-44CE-93B7-B1B317B1A5A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27D4E13F-2326-4D8E-8FF9-7D78B3470DC9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB01D1D6-AFC3-4D8E-B255-1DCD630FA924}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{081B5DE8-382B-40F1-A8F1-DFA5EA1A08FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F891AD1-328E-4749-B2F4-FBEE832DE5EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B83ADBEE-BC71-4B8B-9365-33558E69C8F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04D02DD1-A45A-4A3E-A372-8441DD0B9F12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{944994CA-7FD2-493B-9DCE-F9EB72D99929}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2AFFD1E-B027-429F-BD0C-A6194050FFD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18B7A1E6-FBCC-4AA8-8AEE-36283FB27B43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4079D9B9-E751-4B38-A662-7E211EC46647}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAF7F0C0-1766-4E10-9035-BF3412335EAC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
